--- a/datos_poblacion.xlsx
+++ b/datos_poblacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="20" yWindow="60" windowWidth="25040" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Alicante</t>
   </si>
@@ -27,7 +27,13 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Abs_Alicante</t>
+  </si>
+  <si>
+    <t>Abs_España</t>
   </si>
 </sst>
 </file>
@@ -421,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -437,10 +443,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -448,10 +460,18 @@
         <v>1852166</v>
       </c>
       <c r="C2">
+        <f t="shared" ref="C2:C11" si="0">+B2-B3</f>
+        <v>390241</v>
+      </c>
+      <c r="D2">
         <v>46815916</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <f>+D2-D3</f>
+        <v>5968545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -459,10 +479,18 @@
         <v>1461925</v>
       </c>
       <c r="C3">
+        <f t="shared" si="0"/>
+        <v>127380</v>
+      </c>
+      <c r="D3">
         <v>40847371</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="1">+D3-D4</f>
+        <v>1413429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1991</v>
       </c>
@@ -470,10 +498,18 @@
         <v>1334545</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>185948</v>
+      </c>
+      <c r="D4">
         <v>39433942</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1691381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -481,10 +517,18 @@
         <v>1148597</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>228492</v>
+      </c>
+      <c r="D5">
         <v>37742561</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3786514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>1970</v>
       </c>
@@ -492,10 +536,18 @@
         <v>920105</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>208163</v>
+      </c>
+      <c r="D6">
         <v>33956047</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>3373111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>1960</v>
       </c>
@@ -503,10 +555,18 @@
         <v>711942</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>77877</v>
+      </c>
+      <c r="D7">
         <v>30582936</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2465063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>1950</v>
       </c>
@@ -514,10 +574,18 @@
         <v>634065</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>26503</v>
+      </c>
+      <c r="D8">
         <v>28117873</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2103595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>1940</v>
       </c>
@@ -525,10 +593,18 @@
         <v>607562</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>61724</v>
+      </c>
+      <c r="D9">
         <v>26014278</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2337183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -536,10 +612,18 @@
         <v>545838</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>33652</v>
+      </c>
+      <c r="D10">
         <v>23677095</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2288544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>1920</v>
       </c>
@@ -547,10 +631,18 @@
         <v>512186</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>14570</v>
+      </c>
+      <c r="D11">
         <v>21388551</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1397882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>1910</v>
       </c>
@@ -558,10 +650,18 @@
         <v>497616</v>
       </c>
       <c r="C12">
+        <f>+B12-B13</f>
+        <v>27467</v>
+      </c>
+      <c r="D12">
         <v>19990669</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12">
+        <f>+D12-D13</f>
+        <v>1374039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>1900</v>
       </c>
@@ -569,12 +669,17 @@
         <v>470149</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>18616630</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/datos_poblacion.xlsx
+++ b/datos_poblacion.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Master\Cuatrimestre II\Biometria y Tablas\Trabajos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="60" windowWidth="25040" windowHeight="14020"/>
+    <workbookView xWindow="24" yWindow="60" windowWidth="25044" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Alicante</t>
   </si>
@@ -34,13 +39,46 @@
   </si>
   <si>
     <t>Abs_España</t>
+  </si>
+  <si>
+    <t>Rel_Alicante</t>
+  </si>
+  <si>
+    <t>Rel_España</t>
+  </si>
+  <si>
+    <t>Ind_Alicante</t>
+  </si>
+  <si>
+    <t>Ind_España</t>
+  </si>
+  <si>
+    <t>Bru_Alicante</t>
+  </si>
+  <si>
+    <t>Bru_España</t>
+  </si>
+  <si>
+    <t>Acu_Alicante</t>
+  </si>
+  <si>
+    <t>Acu_España</t>
+  </si>
+  <si>
+    <t>Ins_Alicante</t>
+  </si>
+  <si>
+    <t>Ins_España</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -64,6 +102,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,26 +127,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -451,8 +509,38 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -470,8 +558,42 @@
         <f>+D2-D3</f>
         <v>5968545</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2">
+        <f>C2/B3</f>
+        <v>0.26693640234622157</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/D3</f>
+        <v>0.14611821651875712</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H11" si="1">$H$13*B2/$B$13</f>
+        <v>393.95298086351346</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I11" si="2">$H$13*D2/$D$13</f>
+        <v>251.47363405729178</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.35E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.37E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.3600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -486,11 +608,45 @@
         <v>40847371</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="1">+D3-D4</f>
+        <f t="shared" ref="E3:E11" si="3">+D3-D4</f>
         <v>1413429</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F12" si="4">C3/B4</f>
+        <v>9.5448261392459599E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G12" si="5">E3/D4</f>
+        <v>3.5842954782456186E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="1"/>
+        <v>310.9492947980321</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="2"/>
+        <v>219.4133470988036</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.3E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>8.6E-3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>3.3E-3</v>
+      </c>
+      <c r="N3" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1991</v>
       </c>
@@ -505,11 +661,45 @@
         <v>39433942</v>
       </c>
       <c r="E4">
+        <f t="shared" si="3"/>
+        <v>1691381</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16189142057658168</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="5"/>
+        <v>4.4813625657252033E-2</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>1691381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>283.85575636659865</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>211.82105461622217</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -524,11 +714,45 @@
         <v>37742561</v>
       </c>
       <c r="E5">
+        <f t="shared" si="3"/>
+        <v>3786514</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24833252726590987</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11151221459906685</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>3786514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>244.30489057724253</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>202.73573144011564</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.04E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1970</v>
       </c>
@@ -543,11 +767,45 @@
         <v>33956047</v>
       </c>
       <c r="E6">
+        <f t="shared" si="3"/>
+        <v>3373111</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29238758213449972</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11029389068466154</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>3373111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>195.7049786344329</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>182.39631447796944</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1960</v>
       </c>
@@ -562,11 +820,45 @@
         <v>30582936</v>
       </c>
       <c r="E7">
+        <f t="shared" si="3"/>
+        <v>2465063</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12282179271841215</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>8.7668900133377803E-2</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>2465063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>151.42901505692876</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>164.2775088724436</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.17E-2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1950</v>
       </c>
@@ -581,11 +873,45 @@
         <v>28117873</v>
       </c>
       <c r="E8">
+        <f t="shared" si="3"/>
+        <v>2103595</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3621885503043308E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>8.0863093721071172E-2</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>2103595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>134.86469183173844</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>151.03632075192985</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4.3E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4.3E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1940</v>
       </c>
@@ -600,11 +926,45 @@
         <v>26014278</v>
       </c>
       <c r="E9">
+        <f t="shared" si="3"/>
+        <v>2337183</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11308117060373224</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>9.8710715989440423E-2</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>2337183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>129.22754275772149</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>139.73677298200587</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -619,11 +979,45 @@
         <v>23677095</v>
       </c>
       <c r="E10">
+        <f t="shared" si="3"/>
+        <v>2288544</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5702693943215942E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10699855263687569</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>2288544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>116.09893884704636</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>127.18249758414923</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1920</v>
       </c>
@@ -638,11 +1032,45 @@
         <v>21388551</v>
       </c>
       <c r="E11">
+        <f t="shared" si="3"/>
+        <v>1397882</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9279605157390438E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="5"/>
+        <v>6.9926724313228342E-2</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>1397882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>108.94120800001701</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>114.88948859165166</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1910</v>
       </c>
@@ -660,8 +1088,42 @@
         <f>+D12-D13</f>
         <v>1374039</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2">
+        <f t="shared" si="4"/>
+        <v>5.8421904545154835E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="5"/>
+        <v>7.3807074642403062E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <f>$H$13*B12/$B$13</f>
+        <v>105.84219045451549</v>
+      </c>
+      <c r="I12" s="3">
+        <f>$H$13*D12/$D$13</f>
+        <v>107.3807074642403</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1900</v>
       </c>
@@ -675,6 +1137,36 @@
         <v>18616630</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
         <v>0</v>
       </c>
     </row>

--- a/datos_poblacion.xlsx
+++ b/datos_poblacion.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datos_poblacion.xlsx
+++ b/datos_poblacion.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Master\Cuatrimestre II\Biometria y Tablas\Trabajos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="60" windowWidth="25040" windowHeight="14020"/>
+    <workbookView xWindow="24" yWindow="60" windowWidth="25044" windowHeight="14016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Año</t>
   </si>
@@ -46,12 +51,6 @@
     <t>Crec_relativo</t>
   </si>
   <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
     <t>Indice</t>
   </si>
   <si>
@@ -62,13 +61,85 @@
   </si>
   <si>
     <t>Crec_Inst</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>05-09</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
+    <t>90-94</t>
+  </si>
+  <si>
+    <t>95-99</t>
+  </si>
+  <si>
+    <t>100 ó más años</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>EDAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -99,16 +170,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,6 +207,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -165,64 +271,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -550,13 +671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,19 +694,19 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -614,7 +735,7 @@
         <v>2.3660170461446483E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -643,7 +764,7 @@
         <v>8.5429351684915156E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1991</v>
       </c>
@@ -672,7 +793,7 @@
         <v>1.5004921221916412E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -701,7 +822,7 @@
         <v>2.1822148017218351E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1970</v>
       </c>
@@ -730,7 +851,7 @@
         <v>2.5649134654576855E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1960</v>
       </c>
@@ -759,7 +880,7 @@
         <v>1.1584497457837628E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1950</v>
       </c>
@@ -788,7 +909,7 @@
         <v>4.2697245220992388E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1940</v>
       </c>
@@ -817,7 +938,7 @@
         <v>1.0713199919727856E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -846,7 +967,7 @@
         <v>6.3634388104219395E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1920</v>
       </c>
@@ -875,7 +996,7 @@
         <v>2.8859145069985103E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1910</v>
       </c>
@@ -904,7 +1025,7 @@
         <v>5.6779029508792437E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1900</v>
       </c>
@@ -933,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -962,7 +1083,7 @@
         <v>1.3638076874788751E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -991,7 +1112,7 @@
         <v>3.3000445876961533E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1991</v>
       </c>
@@ -1020,7 +1141,7 @@
         <v>4.3838520857413243E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1981</v>
       </c>
@@ -1049,7 +1170,7 @@
         <v>1.0401166289472763E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1970</v>
       </c>
@@ -1078,7 +1199,7 @@
         <v>1.0462474666238819E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1960</v>
       </c>
@@ -1107,7 +1228,7 @@
         <v>8.4036782388753999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1950</v>
       </c>
@@ -1136,7 +1257,7 @@
         <v>7.7759882829965933E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1940</v>
       </c>
@@ -1165,7 +1286,7 @@
         <v>9.4137416012383575E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1930</v>
       </c>
@@ -1194,7 +1315,7 @@
         <v>1.0165234626121488E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1920</v>
       </c>
@@ -1223,7 +1344,7 @@
         <v>6.7590164178565008E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1910</v>
       </c>
@@ -1252,7 +1373,7 @@
         <v>7.1210347401841293E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1900</v>
       </c>
@@ -1294,238 +1415,521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5">
+        <v>82594</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5">
+        <v>98707</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>94532</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>88411</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>91805</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>101943</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>121031</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5">
+        <v>151213</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>152255</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>144854</v>
+      </c>
+      <c r="E10">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>134886</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>119830</v>
+      </c>
+      <c r="E12">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5">
+        <v>104205</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5">
+        <v>102265</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>86217</v>
+      </c>
+      <c r="E15">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5">
+        <v>67524</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50762</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5">
+        <v>29471</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5">
+        <v>11249</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2307</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>2011</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.3638076874788751E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.3660170461446483E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1900</v>
-      </c>
-      <c r="F2">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.3000445876961533E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.5429351684915156E-3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1910</v>
-      </c>
-      <c r="F3">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1991</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.3838520857413243E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.5004921221916412E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1920</v>
-      </c>
-      <c r="F4">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1981</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.0401166289472763E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.1822148017218351E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1930</v>
-      </c>
-      <c r="F5">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1970</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.0462474666238819E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.5649134654576855E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1940</v>
-      </c>
-      <c r="F6">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>1960</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8.4036782388753999E-3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.1584497457837628E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1950</v>
-      </c>
-      <c r="F7">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>1950</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7.7759882829965933E-3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.2697245220992388E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1960</v>
-      </c>
-      <c r="F8">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1940</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9.4137416012383575E-3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0713199919727856E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1970</v>
-      </c>
-      <c r="F9">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1930</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.0165234626121488E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.3634388104219395E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1981</v>
-      </c>
-      <c r="F10">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1920</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6.7590164178565008E-3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.8859145069985103E-3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1991</v>
-      </c>
-      <c r="F11">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1910</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7.1210347401841293E-3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5.6779029508792437E-3</v>
-      </c>
-      <c r="D12">
-        <v>2001</v>
-      </c>
-      <c r="F12">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>1900</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="G20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6">
+        <v>398</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>2011</v>
-      </c>
-      <c r="F13">
-        <v>2011</v>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1836459</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D13">
-      <sortCondition ref="D1:D13"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
